--- a/Data/Transitions/19531960Translation.xlsx
+++ b/Data/Transitions/19531960Translation.xlsx
@@ -469,7 +469,7 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.4673382942459527}</t>
+    <t>{242.0: 0.6871389480085133}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -670,7 +670,7 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 0.21980065376256058}</t>
+    <t>{242.0: 0.3128610519914868}</t>
   </si>
   <si>
     <t>{398.0: 1.0, 98.0: 0.198807936632421, 532.0: 0.33661933616713396, 560.0: 0.09696578437701743}</t>
@@ -1372,7 +1372,7 @@
     <t>{784.0: 1.0}</t>
   </si>
   <si>
-    <t>{785.0: 1.0, 889.0: 0.5748804429901837}</t>
+    <t>{785.0: 1.0, 889.0: 0.2574101205905556}</t>
   </si>
   <si>
     <t>{786.0: 1.0}</t>
@@ -1495,7 +1495,7 @@
     <t>{888.0: 1.0}</t>
   </si>
   <si>
-    <t>{889.0: 0.42511955700981624}</t>
+    <t>{889.0: 0.7425898794094444}</t>
   </si>
   <si>
     <t>{890.0: 1.0}</t>
@@ -1762,7 +1762,7 @@
     <t>{235.0: 0.9885427855352668, 49.0: 0.01145721446473326}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{245.0: 0.9903617325083294, 858.0: 0.009638267491670634}</t>
@@ -1978,7 +1978,7 @@
     <t>{781.0: 0.9992775312209721, 435.0: 0.0007224687790277634}</t>
   </si>
   <si>
-    <t>{785.0: 0.7952854710047503, 889.0: 0.2047145289952496}</t>
+    <t>{785.0: 0.685269395066832, 889.0: 0.31473060493316796}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
